--- a/biology/Zoologie/Corallobolus_cruentus/Corallobolus_cruentus.xlsx
+++ b/biology/Zoologie/Corallobolus_cruentus/Corallobolus_cruentus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corallobolus
 Corallobolus cruentus, unique représentant du genre Corallobolus, est une espèce de mille-pattes de la famille des Pachybolidae endémique de Madagascar.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Corallobolus cruentus a été décrite en 2009 par le myriapodologiste allemand Thomas Wesener (d) dans une publication rédigée conjointement avec Henrik Enghoff (d) et Petra Sierwald (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Corallobolus cruentus a été décrite en 2009 par le myriapodologiste allemand Thomas Wesener (d) dans une publication rédigée conjointement avec Henrik Enghoff (d) et Petra Sierwald (d).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'a été observée que dans le Nord du parc national d'Andohahela dans le Sud-Est de Madagascar[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'a été observée que dans le Nord du parc national d'Andohahela dans le Sud-Est de Madagascar.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Thomas Wesener, Henrik Enghoff et Petra Sierwald, « Review of the Spirobolida on Madagascar, with descriptions of twelve new genera, including three genera of 'fire millipedes' (Diplopoda) », ZooKeys, Sofia, Pensoft Publishers (d), vol. 19, no 19,‎ 4 septembre 2009, p. 1-128 (ISSN 1313-2989 et 1313-2970, OCLC 248547717, DOI 10.3897/ZOOKEYS.19.221)</t>
         </is>
